--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -40,123 +40,117 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>scary</t>
   </si>
   <si>
     <t>destroying</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>sick</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -166,18 +160,18 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -187,106 +181,112 @@
     <t>good</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>whole</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>ironic</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>w</t>
+    <t>world</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>media</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -647,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,7 +655,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>91</v>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -816,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9519230769230769</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,16 +1087,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.7241379310344828</v>
+        <v>0.64</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.68</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.631578947368421</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,16 +1337,16 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.5555555555555556</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.5384615384615384</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19">
         <v>0.5</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.4848484848484849</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,10 +1619,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0.4166666666666667</v>
@@ -1716,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,16 +1737,16 @@
         <v>9</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.3888888888888889</v>
+        <v>0.375</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1784,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.3043478260869565</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.2692307692307692</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5942028985507246</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1884,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.2604735883424408</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L26">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M26">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,16 +1937,16 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.2372881355932203</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,13 +1966,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5625</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1984,19 +1984,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.1846153846153846</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5416666666666666</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2034,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.1789473684210526</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,10 +2069,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.1764705882352941</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L30">
         <v>6</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2116,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5384615384615384</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.1739130434782609</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2166,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5319148936170213</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2184,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.1707317073170732</v>
+        <v>0.2</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2219,10 +2219,10 @@
         <v>0.5</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2234,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.1707317073170732</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2266,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4705882352941176</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2316,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35">
         <v>0.1529411764705882</v>
@@ -2366,13 +2366,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4285714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.1475409836065574</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2416,13 +2416,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3928571428571428</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2434,19 +2434,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.1408450704225352</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2466,38 +2466,38 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2857142857142857</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>62</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.1194029850746269</v>
+      </c>
+      <c r="L38">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="M38">
         <v>8</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>20</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="L38">
-        <v>6</v>
-      </c>
-      <c r="M38">
-        <v>6</v>
-      </c>
       <c r="N38">
         <v>1</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2516,87 +2516,63 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1794871794871795</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K39">
-        <v>0.072992700729927</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0505050505050505</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>17</v>
-      </c>
-      <c r="E40">
-        <v>0.12</v>
-      </c>
-      <c r="F40">
-        <v>0.88</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>282</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="K40">
-        <v>0.04969879518072289</v>
+        <v>0.05873493975903615</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2608,21 +2584,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.04593639575971731</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2634,21 +2610,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>270</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.04105571847507331</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2660,21 +2636,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>327</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.04097311139564661</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2686,21 +2662,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>749</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.03571428571428571</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2712,21 +2688,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.03518518518518519</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2738,59 +2714,85 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>521</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.03492063492063492</v>
+        <v>0.02948717948717949</v>
       </c>
       <c r="L46">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>304</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.02592165898617511</v>
+        <v>0.02536023054755043</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M47">
         <v>45</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>1691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48">
+        <v>0.02346041055718475</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
